--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,18 @@
     <t>dark</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
@@ -67,109 +70,46 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>unrest</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
     <t>destroying</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>aside</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>sinister</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>false</t>
+    <t>manipulating</t>
   </si>
   <si>
     <t>[UNK]</t>
@@ -184,15 +124,15 @@
     <t>good</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -205,142 +145,133 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
     <t>u</t>
   </si>
   <si>
+    <t>del</t>
+  </si>
+  <si>
     <t>truly</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>know</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>paying</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -722,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS58"/>
+  <dimension ref="A1:BS56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +661,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AK1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="AT1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="BC1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="BL1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -953,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01612999555298098</v>
+        <v>0.01713414878632848</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -971,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.01575191510307554</v>
+        <v>0.01725323432982396</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -995,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01904595061427304</v>
+        <v>0.02026034635235296</v>
       </c>
       <c r="U3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1019,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="AC3">
-        <v>0.05796418555370634</v>
+        <v>0.06518438454592565</v>
       </c>
       <c r="AD3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1043,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.1292803397223796</v>
+        <v>0.193154570816069</v>
       </c>
       <c r="AM3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1067,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="AU3">
-        <v>0.03936222736307178</v>
+        <v>0.04393204062622013</v>
       </c>
       <c r="AV3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1091,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.1069966055686913</v>
+        <v>0.1683560593017231</v>
       </c>
       <c r="BE3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BF3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1115,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="BM3">
-        <v>0.03335123363343572</v>
+        <v>0.03469025915734436</v>
       </c>
       <c r="BN3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BO3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1139,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1147,13 +1078,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01541369065884619</v>
+        <v>0.01415007627336641</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1165,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.01270548957854263</v>
+        <v>0.01275722936968014</v>
       </c>
       <c r="L4">
         <v>17</v>
@@ -1195,13 +1126,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.0182603900154231</v>
+        <v>0.01671676024321051</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1213,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AC4">
-        <v>0.05257573414751517</v>
+        <v>0.05433821085499586</v>
       </c>
       <c r="AD4">
         <v>17</v>
@@ -1243,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.1244585213817282</v>
+        <v>0.1597170608486556</v>
       </c>
       <c r="AM4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1261,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AU4">
-        <v>0.039178212194578</v>
+        <v>0.04044892333598141</v>
       </c>
       <c r="AV4">
         <v>17</v>
@@ -1291,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.103510976579631</v>
+        <v>0.1403072916287766</v>
       </c>
       <c r="BE4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BF4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1309,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="BM4">
-        <v>0.03256579523174687</v>
+        <v>0.03440903613605253</v>
       </c>
       <c r="BN4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BO4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1333,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1341,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.005858259571477131</v>
+        <v>0.005949943903521582</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1362,16 +1293,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.0120158602106425</v>
+        <v>0.01137211699065354</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1383,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.00689163177819397</v>
+        <v>0.007000716886872801</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1410,16 +1341,16 @@
         <v>2</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AC5">
-        <v>0.05039317716498491</v>
+        <v>0.04981297606310964</v>
       </c>
       <c r="AD5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1431,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.04823097659888827</v>
+        <v>0.06823979069467825</v>
       </c>
       <c r="AM5">
         <v>7</v>
@@ -1458,16 +1389,16 @@
         <v>2</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AU5">
-        <v>0.03796930479238252</v>
+        <v>0.03794078861769474</v>
       </c>
       <c r="AV5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1479,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.04282294372700778</v>
+        <v>0.06374345158273458</v>
       </c>
       <c r="BE5">
         <v>7</v>
@@ -1506,16 +1437,16 @@
         <v>2</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="BM5">
-        <v>0.03127168554848425</v>
+        <v>0.03277805634013541</v>
       </c>
       <c r="BN5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BO5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1527,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1535,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.004389129663665033</v>
+        <v>0.004463974687841399</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1553,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.009898278614218728</v>
+        <v>0.009233778014105153</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1577,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.005147040012667104</v>
+        <v>0.005257742276105608</v>
       </c>
       <c r="U6">
         <v>5</v>
@@ -1601,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AC6">
-        <v>0.04317589003479291</v>
+        <v>0.04216440868895757</v>
       </c>
       <c r="AD6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1625,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.03655575396442972</v>
+        <v>0.051996917967381</v>
       </c>
       <c r="AM6">
         <v>5</v>
@@ -1649,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AU6">
-        <v>0.03363221630185866</v>
+        <v>0.03326559443271909</v>
       </c>
       <c r="AV6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1673,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03354545734966129</v>
+        <v>0.05028933880082222</v>
       </c>
       <c r="BE6">
         <v>5</v>
@@ -1697,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="BM6">
-        <v>0.02948139031838991</v>
+        <v>0.02939586142825659</v>
       </c>
       <c r="BN6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1721,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1729,13 +1660,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003660651396349404</v>
+        <v>0.004457907647040549</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1747,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.00919647587313775</v>
+        <v>0.007763727063866665</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1771,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004303655891208169</v>
+        <v>0.005228923832301574</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1795,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AC7">
-        <v>0.04082592900661235</v>
+        <v>0.0364341726362195</v>
       </c>
       <c r="AD7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1819,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03105674030605974</v>
+        <v>0.05152103571097157</v>
       </c>
       <c r="AM7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1843,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AU7">
-        <v>0.03224571732867883</v>
+        <v>0.02947927076386855</v>
       </c>
       <c r="AV7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1867,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.02929108556085902</v>
+        <v>0.04971906774626132</v>
       </c>
       <c r="BE7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1891,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="BM7">
-        <v>0.02851392948962846</v>
+        <v>0.02645486632713508</v>
       </c>
       <c r="BN7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BO7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1915,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1923,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003654564709758984</v>
+        <v>0.003724023600401732</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1941,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.005602248555466974</v>
+        <v>0.005625388087318277</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -1971,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004274744129903671</v>
+        <v>0.00440066419262403</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -1989,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AC8">
-        <v>0.02790429554615739</v>
+        <v>0.02878560526206743</v>
       </c>
       <c r="AD8">
         <v>7</v>
@@ -2019,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.03071814264720044</v>
+        <v>0.04411342273193708</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -2037,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AU8">
-        <v>0.02407008146588918</v>
+        <v>0.02480407657889291</v>
       </c>
       <c r="AV8">
         <v>7</v>
@@ -2067,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.02890671416098804</v>
+        <v>0.04384741793714651</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -2085,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="BM8">
-        <v>0.02240246835631301</v>
+        <v>0.02307267141525627</v>
       </c>
       <c r="BN8">
         <v>7</v>
@@ -2117,13 +2048,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002932173129033776</v>
+        <v>0.003717956559600883</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2135,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.004949139307109364</v>
+        <v>0.004969234142610075</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -2165,13 +2096,13 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003460271769749234</v>
+        <v>0.004371845748819996</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2183,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC9">
-        <v>0.02622395070057805</v>
+        <v>0.02703941697791797</v>
       </c>
       <c r="AD9">
         <v>6</v>
@@ -2213,13 +2144,13 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.02555772664768975</v>
+        <v>0.04363754047552765</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2231,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AU9">
-        <v>0.02339394877664676</v>
+        <v>0.02409780448427695</v>
       </c>
       <c r="AV9">
         <v>6</v>
@@ -2261,13 +2192,13 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.02503671377205676</v>
+        <v>0.0432771468825856</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2279,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BM9">
-        <v>0.02216309723584195</v>
+        <v>0.02281861664809958</v>
       </c>
       <c r="BN9">
         <v>6</v>
@@ -2311,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002932173129033776</v>
+        <v>0.002978005472161216</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2332,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.004241249879437967</v>
+        <v>0.004258476830694229</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -2359,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003460271769749234</v>
+        <v>0.003514767665338417</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2380,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="AC10">
-        <v>0.02379028764957233</v>
+        <v>0.02451858502607804</v>
       </c>
       <c r="AD10">
         <v>5</v>
@@ -2407,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02555772664768975</v>
+        <v>0.03575404524008374</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2428,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="AU10">
-        <v>0.02191865401797475</v>
+        <v>0.02256983949286992</v>
       </c>
       <c r="AV10">
         <v>5</v>
@@ -2455,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02503671377205676</v>
+        <v>0.03683522601890989</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2476,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="BM10">
-        <v>0.02110462519354419</v>
+        <v>0.02172240918474008</v>
       </c>
       <c r="BN10">
         <v>5</v>
@@ -2505,13 +2436,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002197608175127727</v>
+        <v>0.002978005472161216</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2526,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.003533360451766568</v>
+        <v>0.003547719518778383</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -2553,13 +2484,13 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002587975886985801</v>
+        <v>0.003514767665338417</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2574,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AC11">
-        <v>0.02135662459856662</v>
+        <v>0.0219977530742381</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2601,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.01972011533046047</v>
+        <v>0.03575404524008374</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2622,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AU11">
-        <v>0.02044335925930274</v>
+        <v>0.0210418745014629</v>
       </c>
       <c r="AV11">
         <v>4</v>
@@ -2649,13 +2580,13 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02039797058338351</v>
+        <v>0.03683522601890989</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -2670,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="BM11">
-        <v>0.02004615315124644</v>
+        <v>0.02062620172138057</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2699,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002197608175127727</v>
+        <v>0.0022319873439207</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2720,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.00281938433750475</v>
+        <v>0.003432445743562244</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2741,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002587975886985801</v>
+        <v>0.002628871138052804</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2768,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="AC12">
-        <v>0.01883925952473575</v>
+        <v>0.02036239422022487</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2789,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.01972011533046047</v>
+        <v>0.02739466774823039</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2816,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AU12">
-        <v>0.01887926871513855</v>
+        <v>0.01942261029930131</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -2843,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02039797058338351</v>
+        <v>0.02982303410067325</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2864,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="BM12">
-        <v>0.01889666989541239</v>
+        <v>0.01943642173622076</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -2893,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002197608175127727</v>
+        <v>0.0022319873439207</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2914,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.002770690844781383</v>
+        <v>0.002830895166061687</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -2935,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002587975886985801</v>
+        <v>0.002628871138052804</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2962,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AC13">
-        <v>0.01816964334213452</v>
+        <v>0.01939084960376589</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -2983,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.01972011533046047</v>
+        <v>0.02739466774823039</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -3010,16 +2941,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AU13">
-        <v>0.01816890243120114</v>
+        <v>0.01930718949712621</v>
       </c>
       <c r="AV13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -3031,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02039797058338351</v>
+        <v>0.02982303410067325</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -3058,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="BM13">
-        <v>0.018168580187122</v>
+        <v>0.01884832380717464</v>
       </c>
       <c r="BN13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -3079,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3087,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002197608175127727</v>
+        <v>0.0022319873439207</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3108,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.002703737292286755</v>
+        <v>0.002782358839654892</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3129,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002587975886985801</v>
+        <v>0.002628871138052804</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3156,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AC14">
-        <v>0.01724892109105784</v>
+        <v>0.01870227745470769</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3177,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.01972011533046047</v>
+        <v>0.02739466774823039</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3204,16 +3135,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AU14">
-        <v>0.01749276974195871</v>
+        <v>0.01869221661326481</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3225,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02039797058338351</v>
+        <v>0.02982303410067325</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3252,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="BM14">
-        <v>0.01792920906665094</v>
+        <v>0.01868784156181826</v>
       </c>
       <c r="BN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3273,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3281,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002197608175127727</v>
+        <v>0.00222592030311985</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3299,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.002117581596423773</v>
+        <v>0.00212620489494669</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3329,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002587975886985801</v>
+        <v>0.00260005269424877</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3347,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AC15">
-        <v>0.01648929849655518</v>
+        <v>0.01695608917055823</v>
       </c>
       <c r="AD15">
         <v>2</v>
@@ -3377,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.01972011533046047</v>
+        <v>0.02691878549182097</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3395,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AU15">
-        <v>0.01749276974195871</v>
+        <v>0.01798594451864885</v>
       </c>
       <c r="AV15">
         <v>2</v>
@@ -3425,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02039797058338351</v>
+        <v>0.02925276304611234</v>
       </c>
       <c r="BE15">
         <v>2</v>
@@ -3443,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="BM15">
-        <v>0.01792920906665094</v>
+        <v>0.01843378679466157</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -3475,13 +3406,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002197608175127727</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3496,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.002117581596423773</v>
+        <v>0.00212620489494669</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3523,13 +3454,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002587975886985801</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3544,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AC16">
-        <v>0.01648929849655518</v>
+        <v>0.01695608917055823</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3571,13 +3502,13 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.01972011533046047</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3592,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AU16">
-        <v>0.01740397395646654</v>
+        <v>0.01798594451864885</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3613,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02039797058338351</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3640,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BM16">
-        <v>0.01783819785311463</v>
+        <v>0.01843378679466157</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3661,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3669,13 +3600,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002197608175127727</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3690,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.002111494909833352</v>
+        <v>0.002114070813344991</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3711,19 +3642,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002587975886985801</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3738,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="AC17">
-        <v>0.01640559647373003</v>
+        <v>0.01678394613329368</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3759,19 +3690,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.01972011533046047</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3786,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AU17">
-        <v>0.01740397395646654</v>
+        <v>0.01780334609713972</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3807,19 +3738,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02039797058338351</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3834,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="BM17">
-        <v>0.01783819785311463</v>
+        <v>0.01824664175106094</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3855,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3863,13 +3794,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002191521488537306</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3881,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.002111494909833352</v>
+        <v>0.002114070813344991</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3905,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002559064125681303</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3929,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AC18">
-        <v>0.01640559647373003</v>
+        <v>0.01678394613329368</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3953,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.01938151767160118</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3977,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AU18">
-        <v>0.01731517817097436</v>
+        <v>0.01780334609713972</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4007,13 +3938,13 @@
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02001359918351253</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4025,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BM18">
-        <v>0.01774718663957834</v>
+        <v>0.01824664175106094</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4057,13 +3988,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002185434801946885</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4075,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.002105408223242931</v>
+        <v>0.002114070813344991</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4105,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.002530152364376804</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4123,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AC19">
-        <v>0.01632189445090488</v>
+        <v>0.01678394613329368</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4153,13 +4084,13 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01904292001274188</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4171,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AU19">
-        <v>0.01731517817097436</v>
+        <v>0.01780334609713972</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4201,13 +4132,13 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.01962922778364155</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4219,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BM19">
-        <v>0.01774718663957834</v>
+        <v>0.01824664175106094</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4251,7 +4182,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001463043221221678</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4272,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.002105408223242931</v>
+        <v>0.002114070813344991</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4299,7 +4230,7 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001715680004222368</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4320,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AC20">
-        <v>0.01632189445090488</v>
+        <v>0.01678394613329368</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4347,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01388250401323119</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4368,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AU20">
-        <v>0.01731517817097436</v>
+        <v>0.01780334609713972</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4395,7 +4326,7 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01575922739471026</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4416,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="BM20">
-        <v>0.01774718663957834</v>
+        <v>0.01824664175106094</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4445,7 +4376,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001463043221221678</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4466,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.002105408223242931</v>
+        <v>0.002077668568539894</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4487,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001715680004222368</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4514,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AC21">
-        <v>0.01632189445090488</v>
+        <v>0.01626751702150003</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4535,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01388250401323119</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4562,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AU21">
-        <v>0.0171921487907872</v>
+        <v>0.01725555083261235</v>
       </c>
       <c r="AV21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4583,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01575922739471026</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4610,16 +4541,16 @@
         <v>0</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="BM21">
-        <v>0.0171674568382227</v>
+        <v>0.01768520662025907</v>
       </c>
       <c r="BN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4631,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4639,7 +4570,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001463043221221678</v>
+        <v>0.001485969215680183</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4660,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.002056714730519565</v>
+        <v>0.002065534486938196</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4687,7 +4618,7 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001715680004222368</v>
+        <v>0.001742974610767192</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4708,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="AC22">
-        <v>0.01565227826830366</v>
+        <v>0.01609537398423548</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4735,7 +4666,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01388250401323119</v>
+        <v>0.01903529025637705</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4756,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="AU22">
-        <v>0.01660481188703695</v>
+        <v>0.01707295241110322</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4783,7 +4714,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01575922739471026</v>
+        <v>0.02281084218243662</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4804,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="BM22">
-        <v>0.01701909693128794</v>
+        <v>0.01749806157665845</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4833,7 +4764,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001463043221221678</v>
+        <v>0.001479902174879334</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4851,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.002050628043929144</v>
+        <v>0.001415447583030843</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4875,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001715680004222368</v>
+        <v>0.001714156166963157</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4899,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AC23">
-        <v>0.0155685762454785</v>
+        <v>0.0144352572187183</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4923,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01388250401323119</v>
+        <v>0.01855940799996763</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4947,19 +4878,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AU23">
-        <v>0.01651601610154478</v>
+        <v>0.01645797952724182</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4971,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01575922739471026</v>
+        <v>0.0222405711278757</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4995,19 +4926,19 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BM23">
-        <v>0.01692808571775165</v>
+        <v>0.01733757933130206</v>
       </c>
       <c r="BN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -5019,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5027,7 +4958,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001463043221221678</v>
+        <v>0.001479902174879334</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5045,19 +4976,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.001886287505987783</v>
+        <v>0.001415447583030843</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -5069,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001715680004222368</v>
+        <v>0.001714156166963157</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5093,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AC24">
-        <v>0.01405563544554947</v>
+        <v>0.0144352572187183</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5123,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01388250401323119</v>
+        <v>0.01855940799996763</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5141,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AU24">
-        <v>0.01601747498328671</v>
+        <v>0.01645797952724182</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5171,7 +5102,7 @@
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.01575922739471026</v>
+        <v>0.0222405711278757</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5189,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="BM24">
-        <v>0.01687073702435318</v>
+        <v>0.01733757933130206</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5221,7 +5152,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001463043221221678</v>
+        <v>0.001479902174879334</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5239,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.001691513535094318</v>
+        <v>0.001415447583030843</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -5263,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001715680004222368</v>
+        <v>0.001714156166963157</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5287,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AC25">
-        <v>0.01405563544554947</v>
+        <v>0.0144352572187183</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5317,7 +5248,7 @@
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.01388250401323119</v>
+        <v>0.01855940799996763</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5335,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AU25">
-        <v>0.01601747498328671</v>
+        <v>0.01645797952724182</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5365,7 +5296,7 @@
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.01575922739471026</v>
+        <v>0.0222405711278757</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5383,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="BM25">
-        <v>0.01687073702435318</v>
+        <v>0.01733757933130206</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5415,7 +5346,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001463043221221678</v>
+        <v>0.001473835134078484</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5433,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.001409692168752375</v>
+        <v>0.001415447583030843</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5463,7 +5394,7 @@
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001715680004222368</v>
+        <v>0.001685337723159122</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5481,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AC26">
-        <v>0.01405563544554947</v>
+        <v>0.0144352572187183</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5511,7 +5442,7 @@
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.01388250401323119</v>
+        <v>0.0180835257435582</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5529,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AU26">
-        <v>0.01601747498328671</v>
+        <v>0.01645797952724182</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5559,7 +5490,7 @@
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.01575922739471026</v>
+        <v>0.02167030007331479</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5577,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="BM26">
-        <v>0.01687073702435318</v>
+        <v>0.01733757933130206</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5609,31 +5540,31 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001463043221221678</v>
+        <v>0.001243287583646208</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.001409692168752375</v>
+        <v>0.001415447583030843</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5657,31 +5588,31 @@
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001715680004222368</v>
+        <v>0.0005902368586058086</v>
       </c>
       <c r="U27">
         <v>1</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="AC27">
-        <v>0.01405563544554947</v>
+        <v>0.0144352572187183</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5705,31 +5636,31 @@
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.01388250401323119</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>1</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="AU27">
-        <v>0.01601747498328671</v>
+        <v>0.01645797952724182</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5753,31 +5684,31 @@
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.01575922739471026</v>
+        <v>0</v>
       </c>
       <c r="BE27">
         <v>1</v>
       </c>
       <c r="BF27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BH27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BI27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="BM27">
-        <v>0.01687073702435318</v>
+        <v>0.01733757933130206</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5799,35 +5730,11 @@
       </c>
     </row>
     <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5845,37 +5752,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AC28">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5893,37 +5776,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AU28">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5941,37 +5800,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="BM28">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5989,39 +5824,15 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6039,37 +5850,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AC29">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6087,37 +5874,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AU29">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6135,37 +5898,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="BM29">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6183,39 +5922,15 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6233,37 +5948,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AC30">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6281,37 +5972,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AU30">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6329,37 +5996,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="BM30">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6377,39 +6020,15 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6427,37 +6046,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AC31">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6475,37 +6070,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AU31">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6523,37 +6094,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="BM31">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6571,39 +6118,15 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6621,37 +6144,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="AC32">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6669,37 +6168,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="AU32">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6717,37 +6192,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="BM32">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6765,39 +6216,15 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:71">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
+    <row r="33" spans="10:71">
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.001409692168752375</v>
+        <v>0.001409380542229994</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6815,37 +6242,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AC33">
-        <v>0.01405563544554947</v>
+        <v>0.01434918570008602</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6863,37 +6266,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AU33">
-        <v>0.01601747498328671</v>
+        <v>0.01636668031648726</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6911,37 +6290,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="BM33">
-        <v>0.01687073702435318</v>
+        <v>0.01724400680950175</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6959,39 +6314,15 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:71">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
+    <row r="34" spans="10:71">
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.001409692168752375</v>
+        <v>0.001403313501429145</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7009,37 +6340,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="AC34">
-        <v>0.01397193342272431</v>
+        <v>0.01426311418145375</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7057,37 +6364,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="AU34">
-        <v>0.01592867919779453</v>
+        <v>0.0162753811057327</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7105,37 +6388,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="BM34">
-        <v>0.01677972581081688</v>
+        <v>0.01715043428770144</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7153,39 +6412,15 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:71">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
+    <row r="35" spans="10:71">
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.001409692168752375</v>
+        <v>0.001403313501429145</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7203,37 +6438,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AC35">
-        <v>0.01397193342272431</v>
+        <v>0.01426311418145375</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7251,37 +6462,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AU35">
-        <v>0.01592867919779453</v>
+        <v>0.0162753811057327</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7299,37 +6486,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="BM35">
-        <v>0.01677972581081688</v>
+        <v>0.01715043428770144</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7347,39 +6510,15 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
+    <row r="36" spans="10:71">
       <c r="J36" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.001403605482161954</v>
+        <v>0.001403313501429145</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7397,37 +6536,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="AC36">
-        <v>0.01397193342272431</v>
+        <v>0.01426311418145375</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7445,37 +6560,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="AU36">
-        <v>0.01592867919779453</v>
+        <v>0.0162753811057327</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7493,37 +6584,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="BM36">
-        <v>0.01677972581081688</v>
+        <v>0.01715043428770144</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7541,39 +6608,15 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
+    <row r="37" spans="10:71">
       <c r="J37" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.001403605482161954</v>
+        <v>0.001403313501429145</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7591,37 +6634,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AC37">
-        <v>0.01397193342272431</v>
+        <v>0.01426311418145375</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7639,37 +6658,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AU37">
-        <v>0.01592867919779453</v>
+        <v>0.0162753811057327</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7687,37 +6682,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="BM37">
-        <v>0.01677972581081688</v>
+        <v>0.01715043428770144</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7735,39 +6706,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
+    <row r="38" spans="10:71">
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.001403605482161954</v>
+        <v>0.001397246460628295</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7785,37 +6732,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC38">
-        <v>0.01397193342272431</v>
+        <v>0.01417704266282147</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7833,37 +6756,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AU38">
-        <v>0.01592867919779453</v>
+        <v>0.01618408189497814</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7881,37 +6780,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="BM38">
-        <v>0.01677972581081688</v>
+        <v>0.01705686176590113</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7929,39 +6804,15 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.001463043221221678</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
+    <row r="39" spans="10:71">
       <c r="J39" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.001403605482161954</v>
+        <v>0.001397246460628295</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7979,37 +6830,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001715680004222368</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AC39">
-        <v>0.01397193342272431</v>
+        <v>0.01417704266282147</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8027,37 +6854,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.01388250401323119</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AU39">
-        <v>0.01592867919779453</v>
+        <v>0.01618408189497814</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8075,37 +6878,13 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.01575922739471026</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="BM39">
-        <v>0.01677972581081688</v>
+        <v>0.01705686176590113</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8123,39 +6902,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
+    <row r="40" spans="10:71">
       <c r="J40" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.001403605482161954</v>
+        <v>0.001397246460628295</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8173,37 +6928,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AC40">
-        <v>0.01397193342272431</v>
+        <v>0.01417704266282147</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8221,37 +6952,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AU40">
-        <v>0.01592867919779453</v>
+        <v>0.01618408189497814</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8269,37 +6976,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="BM40">
-        <v>0.01677972581081688</v>
+        <v>0.01705686176590113</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8317,39 +7000,15 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
+    <row r="41" spans="10:71">
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.001403605482161954</v>
+        <v>0.001397246460628295</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8367,37 +7026,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AC41">
-        <v>0.01388823139989916</v>
+        <v>0.01417704266282147</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8415,37 +7050,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AU41">
-        <v>0.01583988341230235</v>
+        <v>0.01618408189497814</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8463,37 +7074,13 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="BM41">
-        <v>0.01668871459728058</v>
+        <v>0.01705686176590113</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8511,39 +7098,15 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
+    <row r="42" spans="10:71">
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.001403605482161954</v>
+        <v>0.001391179419827446</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8561,37 +7124,13 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC42">
-        <v>0.01380452937707401</v>
+        <v>0.0140909711441892</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8609,37 +7148,13 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>3</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AU42">
-        <v>0.01575108762681018</v>
+        <v>0.01609278268422357</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8657,37 +7172,13 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>3</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="BM42">
-        <v>0.01659770338374428</v>
+        <v>0.01696328924410082</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8705,39 +7196,15 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
+    <row r="43" spans="10:71">
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.001397518795571533</v>
+        <v>0.001391179419827446</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8755,37 +7222,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AC43">
-        <v>0.01380452937707401</v>
+        <v>0.0140909711441892</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8803,37 +7246,13 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>3</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AU43">
-        <v>0.01575108762681018</v>
+        <v>0.01609278268422357</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8851,37 +7270,13 @@
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="BM43">
-        <v>0.01659770338374428</v>
+        <v>0.01696328924410082</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -8899,39 +7294,15 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
+    <row r="44" spans="10:71">
       <c r="J44" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.001391432108981113</v>
+        <v>0.001391179419827446</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8949,37 +7320,13 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AC44">
-        <v>0.01380452937707401</v>
+        <v>0.0140909711441892</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -8997,37 +7344,13 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AU44">
-        <v>0.01575108762681018</v>
+        <v>0.01609278268422357</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9045,37 +7368,13 @@
         <v>0</v>
       </c>
       <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="BM44">
-        <v>0.01659770338374428</v>
+        <v>0.01696328924410082</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9093,39 +7392,15 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.001456956534631257</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
+    <row r="45" spans="10:71">
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.001391432108981113</v>
+        <v>0.001385112379026597</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9143,37 +7418,13 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.001686768242917869</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AC45">
-        <v>0.01372082735424885</v>
+        <v>0.01400489962555692</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9191,37 +7442,13 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.0135439063543719</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AU45">
-        <v>0.015662291841318</v>
+        <v>0.01600148347346901</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9239,37 +7466,13 @@
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.01537485599483928</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="BM45">
-        <v>0.01650669217020799</v>
+        <v>0.0168697167223005</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9287,39 +7490,15 @@
         <v>0</v>
       </c>
       <c r="BS45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.001450869848040836</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
+    <row r="46" spans="10:71">
       <c r="J46" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.001391432108981113</v>
+        <v>0.001385112379026597</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9337,37 +7516,13 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>3</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.00165785648161337</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AC46">
-        <v>0.01372082735424885</v>
+        <v>0.01400489962555692</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9385,37 +7540,13 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.0132053086955126</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AU46">
-        <v>0.015662291841318</v>
+        <v>0.01600148347346901</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9433,37 +7564,13 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>4</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.0149904845949683</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BL46" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM46">
-        <v>0.01650669217020799</v>
+        <v>0.0168697167223005</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9481,39 +7588,15 @@
         <v>0</v>
       </c>
       <c r="BS46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.001213489071014426</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>41</v>
-      </c>
+    <row r="47" spans="10:71">
       <c r="J47" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.001385345422390691</v>
+        <v>0.001379045338225747</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9531,37 +7614,13 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0005302977907379226</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AC47">
-        <v>0.0136371253314237</v>
+        <v>0.01391882810692465</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -9579,37 +7638,13 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>5</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AU47">
-        <v>0.01557349605582583</v>
+        <v>0.01591018426271445</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9627,37 +7662,13 @@
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>5</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BM47">
-        <v>0.01641568095667168</v>
+        <v>0.01677614420050019</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9675,15 +7686,15 @@
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:71">
+    <row r="48" spans="10:71">
       <c r="J48" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.001385345422390691</v>
+        <v>0.001379045338225747</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9701,13 +7712,13 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AC48">
-        <v>0.01355342330859855</v>
+        <v>0.01391882810692465</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9728,10 +7739,10 @@
         <v>6</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AU48">
-        <v>0.01548470027033365</v>
+        <v>0.01591018426271445</v>
       </c>
       <c r="AV48">
         <v>1</v>
@@ -9752,10 +7763,10 @@
         <v>6</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="BM48">
-        <v>0.01632466974313539</v>
+        <v>0.01677614420050019</v>
       </c>
       <c r="BN48">
         <v>1</v>
@@ -9778,10 +7789,10 @@
     </row>
     <row r="49" spans="10:71">
       <c r="J49" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.001379258735800271</v>
+        <v>0.001379045338225747</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9799,13 +7810,13 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AC49">
-        <v>0.01355342330859855</v>
+        <v>0.01391882810692465</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -9826,10 +7837,10 @@
         <v>6</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AU49">
-        <v>0.01548470027033365</v>
+        <v>0.01591018426271445</v>
       </c>
       <c r="AV49">
         <v>1</v>
@@ -9850,10 +7861,10 @@
         <v>6</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="BM49">
-        <v>0.01632466974313539</v>
+        <v>0.01677614420050019</v>
       </c>
       <c r="BN49">
         <v>1</v>
@@ -9876,10 +7887,10 @@
     </row>
     <row r="50" spans="10:71">
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.00137317204920985</v>
+        <v>0.001379045338225747</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -9900,16 +7911,16 @@
         <v>6</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC50">
-        <v>0.01330862162919936</v>
+        <v>0.01391882810692465</v>
       </c>
       <c r="AD50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -9921,13 +7932,13 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AU50">
-        <v>0.01521831291385712</v>
+        <v>0.01591018426271445</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -9945,13 +7956,13 @@
         <v>0</v>
       </c>
       <c r="BA50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="BM50">
-        <v>0.01605163610252649</v>
+        <v>0.01677614420050019</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -9969,15 +7980,15 @@
         <v>0</v>
       </c>
       <c r="BS50">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="10:71">
       <c r="J51" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.00137317204920985</v>
+        <v>0.001372978297424898</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -9995,13 +8006,13 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AC51">
-        <v>0.01330231724012309</v>
+        <v>0.01383275658829237</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -10019,13 +8030,13 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AU51">
-        <v>0.01521831291385712</v>
+        <v>0.01581888505195989</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -10043,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="BA51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="BM51">
-        <v>0.01605163610252649</v>
+        <v>0.01668257167869988</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -10067,15 +8078,15 @@
         <v>0</v>
       </c>
       <c r="BS51">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="10:71">
       <c r="J52" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.001354911989438588</v>
+        <v>0.001342643093420651</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -10093,13 +8104,13 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AC52">
-        <v>0.01330231724012309</v>
+        <v>0.013402398995131</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -10117,13 +8128,13 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AU52">
-        <v>0.01512951712836494</v>
+        <v>0.01536238899818707</v>
       </c>
       <c r="AV52">
         <v>1</v>
@@ -10141,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="BA52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="BM52">
-        <v>0.01596062488899019</v>
+        <v>0.01621470906969831</v>
       </c>
       <c r="BN52">
         <v>1</v>
@@ -10165,15 +8176,15 @@
         <v>0</v>
       </c>
       <c r="BS52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="10:71">
       <c r="J53" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.001354911989438588</v>
+        <v>0.001336576052619801</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -10191,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AC53">
-        <v>0.01321861521729794</v>
+        <v>0.01331632747649872</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -10215,13 +8226,13 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT53" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AU53">
-        <v>0.01486312977188842</v>
+        <v>0.01527108978743251</v>
       </c>
       <c r="AV53">
         <v>1</v>
@@ -10242,10 +8253,10 @@
         <v>13</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="BM53">
-        <v>0.0156875912483813</v>
+        <v>0.016121136547898</v>
       </c>
       <c r="BN53">
         <v>1</v>
@@ -10268,108 +8279,108 @@
     </row>
     <row r="54" spans="10:71">
       <c r="J54" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="K54">
-        <v>0.001348825302848167</v>
+        <v>0.001172765950996868</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="AC54">
-        <v>0.01296750914882248</v>
+        <v>0.01099239647342729</v>
       </c>
       <c r="AD54">
         <v>1</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AU54">
-        <v>0.01411852989325602</v>
+        <v>0.01280601109705932</v>
       </c>
       <c r="AV54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW54">
         <v>2</v>
       </c>
       <c r="AX54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AY54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA54">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="BM54">
-        <v>0.01447078295227157</v>
+        <v>0.01359467845928957</v>
       </c>
       <c r="BN54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO54">
         <v>2</v>
       </c>
       <c r="BP54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BQ54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BR54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS54">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:71">
       <c r="J55" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.001330565243076904</v>
+        <v>0.0009846876861705366</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -10387,19 +8398,19 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AC55">
-        <v>0.01063015689879446</v>
+        <v>0.008324179395826754</v>
       </c>
       <c r="AD55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -10411,19 +8422,19 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AU55">
-        <v>0.01127706475750638</v>
+        <v>0.009975735563667876</v>
       </c>
       <c r="AV55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX55">
         <v>1</v>
@@ -10435,19 +8446,19 @@
         <v>0</v>
       </c>
       <c r="BA55">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="BM55">
-        <v>0.01155842411910999</v>
+        <v>0.01069393028347988</v>
       </c>
       <c r="BN55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP55">
         <v>1</v>
@@ -10459,21 +8470,21 @@
         <v>0</v>
       </c>
       <c r="BS55">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="10:71">
       <c r="J56" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.001026230913555866</v>
+        <v>0.0009309978571793595</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -10485,19 +8496,19 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="AC56">
-        <v>0.008782408007564815</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -10509,19 +8520,19 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="AU56">
-        <v>0.0104233404972796</v>
+        <v>0</v>
       </c>
       <c r="AV56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX56">
         <v>1</v>
@@ -10533,19 +8544,19 @@
         <v>0</v>
       </c>
       <c r="BA56">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="BM56">
-        <v>0.01113703057156634</v>
+        <v>0</v>
       </c>
       <c r="BN56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP56">
         <v>1</v>
@@ -10557,202 +8568,6 @@
         <v>0</v>
       </c>
       <c r="BS56">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="10:71">
-      <c r="J57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57">
-        <v>0.0009836241074229202</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>70</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC57">
-        <v>0.008196493847788741</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>70</v>
-      </c>
-      <c r="AT57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU57">
-        <v>0.009801769998834369</v>
-      </c>
-      <c r="AV57">
-        <v>1</v>
-      </c>
-      <c r="AW57">
-        <v>1</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>70</v>
-      </c>
-      <c r="BL57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM57">
-        <v>0.01049995207681224</v>
-      </c>
-      <c r="BN57">
-        <v>1</v>
-      </c>
-      <c r="BO57">
-        <v>1</v>
-      </c>
-      <c r="BP57">
-        <v>1</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS57">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="10:71">
-      <c r="J58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58">
-        <v>0.0009185043381108796</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>197</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>2</v>
-      </c>
-      <c r="AE58">
-        <v>2</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>197</v>
-      </c>
-      <c r="AT58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU58">
-        <v>0</v>
-      </c>
-      <c r="AV58">
-        <v>2</v>
-      </c>
-      <c r="AW58">
-        <v>2</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>197</v>
-      </c>
-      <c r="BL58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM58">
-        <v>0</v>
-      </c>
-      <c r="BN58">
-        <v>2</v>
-      </c>
-      <c r="BO58">
-        <v>2</v>
-      </c>
-      <c r="BP58">
-        <v>1</v>
-      </c>
-      <c r="BQ58">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS58">
         <v>197</v>
       </c>
     </row>
